--- a/data/Game/Zone.xlsx
+++ b/data/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.222 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>
